--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1982.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1982.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.017*"import" + 0.016*"exchange" + 0.015*"foreign" + 0.015*"bank" + 0.013*"may" + 0.012*"export" + 0.011*"currency" + 0.010*"per" + 0.009*"account" + 0.008*"cent"</t>
-  </si>
-  <si>
-    <t>0.002*"import" + 0.002*"exchange" + 0.002*"foreign" + 0.002*"bank" + 0.002*"export" + 0.002*"may" + 0.001*"rom" + 0.001*"payment" + 0.001*"currency" + 0.001*"cent"</t>
-  </si>
-  <si>
-    <t>0.008*"exchange" + 0.007*"foreign" + 0.006*"import" + 0.005*"bank" + 0.005*"export" + 0.005*"may" + 0.005*"currency" + 0.005*"per" + 0.005*"rate" + 0.004*"payment"</t>
-  </si>
-  <si>
-    <t>0.001*"import" + 0.001*"foreign" + 0.001*"exchange" + 0.001*"export" + 0.001*"may" + 0.001*"bank" + 0.001*"per" + 0.001*"account" + 0.001*"payment" + 0.001*"cent"</t>
-  </si>
-  <si>
-    <t>0.004*"exchange" + 0.004*"import" + 0.004*"foreign" + 0.003*"bank" + 0.002*"may" + 0.002*"rate" + 0.002*"account" + 0.002*"per" + 0.002*"export" + 0.002*"payment"</t>
+    <t>0.033*"export" + 0.028*"import" + 0.024*"license" + 0.022*"exchange" + 0.016*"require" + 0.014*"trade" + 0.014*"control" + 0.013*"bank" + 0.012*"good" + 0.011*"country"</t>
+  </si>
+  <si>
+    <t>0.025*"fund" + 0.024*"rate" + 0.021*"ion" + 0.019*"monetary" + 0.017*"dollar" + 0.016*"year" + 0.016*"international" + 0.015*"ing" + 0.013*"ts" + 0.013*"th"</t>
+  </si>
+  <si>
+    <t>0.045*"gold" + 0.023*"may" + 0.016*"traveler" + 0.014*"south" + 0.013*"franc" + 0.012*"currency" + 0.012*"coin" + 0.012*"take" + 0.012*"resident" + 0.012*"republic"</t>
+  </si>
+  <si>
+    <t>0.039*"bank" + 0.033*"foreign" + 0.031*"may" + 0.027*"account" + 0.023*"exchange" + 0.020*"currency" + 0.016*"resident" + 0.015*"payment" + 0.014*"nonresident" + 0.013*"abroad"</t>
+  </si>
+  <si>
+    <t>0.051*"import" + 0.045*"per" + 0.036*"cent" + 0.015*"certain" + 0.014*"subject" + 0.013*"travel" + 0.012*"u" + 0.012*"exchange" + 0.011*"tax" + 0.009*"rate"</t>
   </si>
 </sst>
 </file>
